--- a/biology/Botanique/Begonia_pelargoniiflora/Begonia_pelargoniiflora.xlsx
+++ b/biology/Botanique/Begonia_pelargoniiflora/Begonia_pelargoniiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia pelargoniiflora J.J.de Wilde &amp; J.C.Arends est une espèce de plantes de la famille des Begoniaceae, de la section Tetraphila, endémique de la ligne montagneuse du Cameroun.
 Elle a été décrite en 1991 par Jan Jacobus Friedrich Egmond de Wilde et Johan Coenraad Arends.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe épiphyte pouvant atteindre 20 cm de hauteur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe épiphyte pouvant atteindre 20 cm de hauteur.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype a été récolté en mars 1976 par René Letouzey sur le versant occidental du mont Nlonako, à 5 km au sud-est de Nkongsamba, dans la Région du Littoral[3].
-Outre cette première localisation, l'espèce a également été observée au monts Bakossi au sud-ouest du Cameroun et sur un site en Guinée équatoriale sur l'île de Bioko[4].
-Menacée par la déforestation, elle est considérée comme une « espèce en danger »[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype a été récolté en mars 1976 par René Letouzey sur le versant occidental du mont Nlonako, à 5 km au sud-est de Nkongsamba, dans la Région du Littoral.
+Outre cette première localisation, l'espèce a également été observée au monts Bakossi au sud-ouest du Cameroun et sur un site en Guinée équatoriale sur l'île de Bioko.
+Menacée par la déforestation, elle est considérée comme une « espèce en danger ».
 </t>
         </is>
       </c>
